--- a/results/Results_PSO_PID_Test_4.xlsx
+++ b/results/Results_PSO_PID_Test_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuadrotorPython\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB8CDD-0BDB-46F0-8C1E-3C12B1A736B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA41EE-051B-44D6-BFD9-5E7568972F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Test</t>
   </si>
@@ -84,6 +84,15 @@
   <si>
     <t>Kd_psi</t>
   </si>
+  <si>
+    <t>Best Fitness</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,13 +143,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -445,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2468,10 +2494,149 @@
         <v>0.70266677678981493</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
         <f>MIN(B2:B31)</f>
         <v>4.0982777889186847E-2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>11.53998527730567</v>
+      </c>
+      <c r="D34">
+        <v>0.96438245495784081</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>9.3343006132027231</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>1.872971365309871</v>
+      </c>
+      <c r="I34">
+        <v>1.8096826077956769</v>
+      </c>
+      <c r="J34">
+        <v>7.2091054681263381E-2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>4.367645285504584</v>
+      </c>
+      <c r="M34">
+        <v>6.8628064067134953E-2</v>
+      </c>
+      <c r="N34">
+        <v>0.77156627254300114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C2:C31)</f>
+        <v>1.0987654320987652</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.STDEV.S(C2:C31)</f>
+        <v>0.21379868988569761</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE(D2:D31)</f>
+        <v>1.1388014875199615</v>
+      </c>
+      <c r="D37">
+        <f>_xlfn.STDEV.S(D2:D31)</f>
+        <v>0.45756351322039474</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE(G2:G31)</f>
+        <v>8.3672277495948813E-2</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>5.3608102032641223E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <f>AVERAGE(H2:H31)</f>
+        <v>0.61080622032852872</v>
+      </c>
+      <c r="D39">
+        <f>_xlfn.STDEV.S(H2:H31)</f>
+        <v>2.5182537169962712E-2</v>
       </c>
     </row>
   </sheetData>
